--- a/MetaAnalysis_ExPost.xlsx
+++ b/MetaAnalysis_ExPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strath-my.sharepoint.com/personal/han_chen_strath_ac_uk/Documents/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD9D656-2329-4C46-87B5-E6D4C07C436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{EAD9D656-2329-4C46-87B5-E6D4C07C436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A60C23-E878-4698-B487-F21DD344C461}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="1065" windowWidth="17205" windowHeight="13890" activeTab="3" xr2:uid="{FC00B0F0-91E5-46C8-872F-1FCA37FB9834}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12780" xr2:uid="{FC00B0F0-91E5-46C8-872F-1FCA37FB9834}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ElectricityTrade" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="3.Investment" sheetId="3" r:id="rId3"/>
     <sheet name="4.CarbonTransfer" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.ElectricityTrade'!$A$1:$J$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="109">
   <si>
     <t>Authors</t>
   </si>
@@ -72,9 +75,6 @@
   </si>
   <si>
     <t>Cha2019_1</t>
-  </si>
-  <si>
-    <t>trade (electricity)_noncoal</t>
   </si>
   <si>
     <t>electricity generation of NGCC in the Pennsylvania and Ohio (Non-RGGI)</t>
@@ -135,21 +135,6 @@
 cycle plants)</t>
   </si>
   <si>
-    <t>LoP2019</t>
-  </si>
-  <si>
-    <t>plant capacity factor in leaker area Northwest(coal-fired plants))</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>plant capacity factor in leaker area Eastern(coal-fired plants))</t>
-  </si>
-  <si>
-    <t>plant capacity factor in leaker area Southwest(coal-fired plants))</t>
-  </si>
-  <si>
     <t>Lop2023</t>
   </si>
   <si>
@@ -366,6 +351,27 @@
   </si>
   <si>
     <t>the share of EU emissions in total global emissions of a firm</t>
+  </si>
+  <si>
+    <t>trade (electricity)_NGCC</t>
+  </si>
+  <si>
+    <t>hourly capacity factors in NW during the day (NGCC)</t>
+  </si>
+  <si>
+    <t>hourly capacity factors in NW during the night (NGCC)</t>
+  </si>
+  <si>
+    <t>hourly capacity factors in RoW during the day (NGCC)</t>
+  </si>
+  <si>
+    <t>hourly capacity factors in RoW during the night (NGCC)</t>
+  </si>
+  <si>
+    <t>hourly capacity factors in SW during the day (NGCC)</t>
+  </si>
+  <si>
+    <t>hourly capacity factors in SW during the night (NGCC)</t>
   </si>
 </sst>
 </file>
@@ -467,6 +473,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,15 +776,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5988E887-0235-4536-BF47-0E918CD6641D}">
-  <dimension ref="A1:J51"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.85546875" style="3"/>
+    <col min="1" max="1" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -809,21 +826,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4">
         <v>1.17</v>
@@ -838,24 +855,24 @@
         <v>26669</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
         <v>0.93</v>
@@ -870,24 +887,24 @@
         <v>26669</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
         <v>-0.09</v>
@@ -896,30 +913,30 @@
         <v>0.06</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
         <v>26669</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4">
         <v>-7.0000000000000007E-2</v>
@@ -928,30 +945,30 @@
         <v>0.09</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
         <v>26669</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4">
         <v>-0.02</v>
@@ -960,30 +977,30 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
         <v>26669</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4">
         <v>-0.13</v>
@@ -992,30 +1009,30 @@
         <v>0.08</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
         <v>26669</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4">
         <v>-4.0000000000000001E-3</v>
@@ -1024,30 +1041,30 @@
         <v>1.9E-2</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7">
         <v>2010</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4">
         <v>-2E-3</v>
@@ -1056,30 +1073,30 @@
         <v>0.02</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
         <v>2010</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4">
         <v>0.06</v>
@@ -1094,24 +1111,24 @@
         <v>726688</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
         <v>6.93E-2</v>
@@ -1126,24 +1143,24 @@
         <v>726688</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4">
         <v>-1.4999999999999999E-2</v>
@@ -1152,30 +1169,30 @@
         <v>2.4E-2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7">
         <v>2010</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="4">
         <v>-1.1999999999999999E-3</v>
@@ -1184,30 +1201,30 @@
         <v>2.4E-2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
         <v>2010</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4">
         <v>0.06</v>
@@ -1222,24 +1239,24 @@
         <v>726688</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
         <v>6.93E-2</v>
@@ -1254,24 +1271,24 @@
         <v>726688</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4">
         <v>0.21</v>
@@ -1286,24 +1303,24 @@
         <v>1723</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="4">
         <v>0.20599999999999999</v>
@@ -1318,24 +1335,24 @@
         <v>1723</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="4">
         <v>0.157</v>
@@ -1350,24 +1367,24 @@
         <v>513191</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="4">
         <v>0.154</v>
@@ -1382,24 +1399,24 @@
         <v>513191</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4">
         <v>0.11899999999999999</v>
@@ -1414,24 +1431,24 @@
         <v>1723</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="4">
         <v>0.10100000000000001</v>
@@ -1446,408 +1463,408 @@
         <v>1723</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="8">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>33</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1.2E-2</v>
       </c>
       <c r="H22" s="6">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="I22" s="7">
-        <v>14298</v>
+        <v>9096375</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="8">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>33</v>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1.4E-2</v>
       </c>
       <c r="H23" s="6">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="I23" s="7">
-        <v>12615</v>
+        <v>9096375</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="8">
-        <v>3.9300000000000002E-2</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>33</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1.4E-2</v>
       </c>
       <c r="H24" s="6">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="I24" s="7">
-        <v>14298</v>
+        <v>9096375</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="8">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>33</v>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H25" s="6">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="I25" s="7">
-        <v>12615</v>
+        <v>9096375</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="8">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>19</v>
+        <v>0.06</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.99</v>
       </c>
       <c r="I26" s="7">
-        <v>14298</v>
+        <v>9096375</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="8">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>19</v>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.99</v>
       </c>
       <c r="I27" s="7">
-        <v>12615</v>
+        <v>9096375</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G28" s="5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.99</v>
+        <v>1.9E-2</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I28" s="7">
         <v>9096375</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G29" s="5">
-        <v>1.4E-2</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0.95</v>
+        <v>0.02</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I29" s="7">
         <v>9096375</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="8">
-        <v>4.4999999999999998E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G30" s="5">
-        <v>1.4E-2</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.99</v>
+        <v>0.02</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="7">
         <v>9096375</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C31" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G31" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0.99</v>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I31" s="7">
         <v>9096375</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="8">
-        <v>0.06</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G32" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H32" s="6">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I32" s="7">
         <v>9096375</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C33" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="8">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G33" s="5">
-        <v>1.4E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H33" s="6">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I33" s="7">
         <v>9096375</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="8">
         <v>3.1E-2</v>
@@ -1862,24 +1879,24 @@
         <v>9096375</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="8">
         <v>3.7999999999999999E-2</v>
@@ -1894,24 +1911,24 @@
         <v>9096375</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="8">
         <v>4.2999999999999997E-2</v>
@@ -1926,24 +1943,24 @@
         <v>9096375</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3">
         <v>17</v>
       </c>
-      <c r="C37" s="3">
-        <v>11</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="8">
         <v>5.8999999999999997E-2</v>
@@ -1958,24 +1975,24 @@
         <v>9096375</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="8">
         <v>6.6000000000000003E-2</v>
@@ -1990,24 +2007,24 @@
         <v>9096375</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="8">
         <v>5.3999999999999999E-2</v>
@@ -2022,394 +2039,785 @@
         <v>9096375</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C40" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="8">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="G40" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" s="7">
         <v>9096375</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C41" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="8">
-        <v>0.06</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="G41" s="5">
-        <v>5.6000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" s="7">
         <v>9096375</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C42" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G42" s="5">
-        <v>5.6000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42" s="7">
         <v>9096375</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="8">
-        <v>9.0999999999999998E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="G43" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" s="7">
         <v>9096375</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="G44" s="5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0.9</v>
       </c>
       <c r="I44" s="7">
         <v>9096375</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="8">
-        <v>9.0999999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="G45" s="5">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0.9</v>
+        <v>2.3E-2</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I45" s="7">
         <v>9096375</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="8">
-        <v>0.60099999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="G46" s="5">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.95</v>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I46" s="7">
-        <v>82320</v>
+        <v>9096375</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C47" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="8">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="G47" s="5">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0.95</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I47" s="7">
-        <v>82320</v>
+        <v>9096375</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C48" s="3">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="8">
-        <v>0.17299999999999999</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G48" s="5">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0.9</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I48" s="7">
-        <v>28860</v>
+        <v>9096375</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3">
+        <v>29</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3">
+        <v>30</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G50" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I50" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3">
+        <v>31</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I51" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="3">
+        <v>32</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="8">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="3">
+        <v>33</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="3">
+        <v>34</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="8">
+        <v>-1E-3</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="3">
+        <v>35</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="3">
+        <v>36</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="3">
+        <v>37</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1.11E-2</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="7">
+        <v>9096375</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G58" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I58" s="7">
+        <v>82320</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G59" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I59" s="7">
+        <v>82320</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G60" s="5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I60" s="7">
+        <v>28860</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="3">
+        <v>12</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.193</v>
+      </c>
+      <c r="G61" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I61" s="7">
+        <v>28860</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="3">
-        <v>12</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0.193</v>
-      </c>
-      <c r="G49" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I49" s="7">
-        <v>28860</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="3">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="8">
+      <c r="E62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="8">
         <v>0.14699999999999999</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G62" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H62" s="5">
         <v>0.9</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I62" s="7">
         <v>82320</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="J62" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3">
         <v>4</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="8">
         <v>0.155</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G63" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H63" s="5">
         <v>0.9</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I63" s="7">
         <v>82320</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>14</v>
+      <c r="J63" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J63" xr:uid="{5988E887-0235-4536-BF47-0E918CD6641D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="trade (electricity)_coal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2462,19 +2870,19 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="8">
         <v>-9.2999999999999999E-2</v>
@@ -2483,30 +2891,30 @@
         <v>0.51</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3">
         <v>168</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="8">
         <v>3.5999999999999997E-2</v>
@@ -2515,30 +2923,30 @@
         <v>0.33</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3">
         <v>168</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8">
         <v>0.10299999999999999</v>
@@ -2547,30 +2955,30 @@
         <v>0.46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3">
         <v>168</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8">
         <v>0.129</v>
@@ -2579,30 +2987,30 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3">
         <v>168</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8">
         <v>1.6E-2</v>
@@ -2611,30 +3019,30 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
         <v>321360</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="8">
         <v>-4.0000000000000001E-3</v>
@@ -2643,30 +3051,30 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
         <v>321360</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="8">
         <v>2.7E-2</v>
@@ -2675,30 +3083,30 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7">
         <v>321360</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8">
         <v>-7.0000000000000001E-3</v>
@@ -2707,30 +3115,30 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
         <v>321360</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4">
         <v>0.12</v>
@@ -2745,24 +3153,24 @@
         <v>788918</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
         <v>-0.13300000000000001</v>
@@ -2777,24 +3185,24 @@
         <v>788918</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4">
         <v>0.17899999999999999</v>
@@ -2809,24 +3217,24 @@
         <v>801619</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="4">
         <v>-5.0000000000000001E-3</v>
@@ -2835,30 +3243,30 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
         <v>801619</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4">
         <v>0.14199999999999999</v>
@@ -2873,24 +3281,24 @@
         <v>801619</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
         <v>-6.7000000000000002E-3</v>
@@ -2905,24 +3313,24 @@
         <v>801619</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3">
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4">
         <v>5.8999999999999997E-2</v>
@@ -2937,24 +3345,24 @@
         <v>937213</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="4">
         <v>-2.1000000000000001E-2</v>
@@ -2969,7 +3377,7 @@
         <v>937213</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3025,19 +3433,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4">
         <v>0.28199999999999997</v>
@@ -3052,24 +3460,24 @@
         <v>731</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
         <v>0.19900000000000001</v>
@@ -3084,24 +3492,24 @@
         <v>731</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
         <v>0.193</v>
@@ -3116,24 +3524,24 @@
         <v>731</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4">
         <v>0.129</v>
@@ -3142,30 +3550,30 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
         <v>731</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" s="9">
         <v>0.43</v>
@@ -3180,24 +3588,24 @@
         <v>4716</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7" s="9">
         <v>0.55000000000000004</v>
@@ -3212,24 +3620,24 @@
         <v>4365</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F8" s="9">
         <v>1.1000000000000001</v>
@@ -3244,24 +3652,24 @@
         <v>4365</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F9" s="9">
         <v>0.51900000000000002</v>
@@ -3276,24 +3684,24 @@
         <v>4716</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" s="9">
         <v>1.6930000000000001</v>
@@ -3308,24 +3716,24 @@
         <v>6054</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F11" s="9">
         <v>1.6160000000000001</v>
@@ -3340,24 +3748,24 @@
         <v>6054</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F12" s="9">
         <v>1.62</v>
@@ -3372,24 +3780,24 @@
         <v>6054</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" s="9">
         <v>1.347</v>
@@ -3404,24 +3812,24 @@
         <v>6054</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F14" s="9">
         <v>1.347</v>
@@ -3436,24 +3844,24 @@
         <v>6054</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F15" s="9">
         <v>-3.09E-2</v>
@@ -3468,24 +3876,24 @@
         <v>303043</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16" s="9">
         <v>-5.5800000000000002E-2</v>
@@ -3500,24 +3908,24 @@
         <v>303043</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F17" s="9">
         <v>0.56200000000000006</v>
@@ -3532,24 +3940,24 @@
         <v>4716</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F18" s="9">
         <v>0.72</v>
@@ -3564,24 +3972,24 @@
         <v>4365</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F19" s="9">
         <v>1.3149999999999999</v>
@@ -3596,24 +4004,24 @@
         <v>4365</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F20" s="9">
         <v>0.80200000000000005</v>
@@ -3628,24 +4036,24 @@
         <v>4716</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F21" s="9">
         <v>0.40500000000000003</v>
@@ -3654,30 +4062,30 @@
         <v>0.247</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="7">
         <v>4579</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5">
         <v>0.47399999999999998</v>
@@ -3692,24 +4100,24 @@
         <v>4579</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F23" s="9">
         <v>0.47699999999999998</v>
@@ -3724,24 +4132,24 @@
         <v>3441</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F24" s="5">
         <v>0.55700000000000005</v>
@@ -3756,24 +4164,24 @@
         <v>3441</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F25" s="9">
         <v>0.51500000000000001</v>
@@ -3788,24 +4196,24 @@
         <v>4579</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F26" s="5">
         <v>0.48099999999999998</v>
@@ -3820,24 +4228,24 @@
         <v>4579</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F27" s="9">
         <v>0.76800000000000002</v>
@@ -3852,24 +4260,24 @@
         <v>3441</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3">
         <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5">
         <v>0.74299999999999999</v>
@@ -3884,24 +4292,24 @@
         <v>3441</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F29" s="9">
         <v>2.3559000000000001</v>
@@ -3916,24 +4324,24 @@
         <v>13776</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F30" s="9">
         <v>1.9449000000000001</v>
@@ -3948,24 +4356,24 @@
         <v>13776</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F31" s="9">
         <v>2.3559000000000001</v>
@@ -3980,24 +4388,24 @@
         <v>13776</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F32" s="9">
         <v>1.6763999999999999</v>
@@ -4012,24 +4420,24 @@
         <v>13776</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F33" s="5">
         <v>-1.5517000000000001</v>
@@ -4044,24 +4452,24 @@
         <v>20775</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F34" s="5">
         <v>-0.62829999999999997</v>
@@ -4076,24 +4484,24 @@
         <v>20775</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F35" s="5">
         <v>-0.81869999999999998</v>
@@ -4108,24 +4516,24 @@
         <v>20775</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F36" s="5">
         <v>-0.74480000000000002</v>
@@ -4140,7 +4548,7 @@
         <v>20775</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D507AA82-17E6-4B04-B698-3C181AEA503A}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -4199,19 +4607,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="8">
         <v>6.7000000000000004E-2</v>
@@ -4226,24 +4634,24 @@
         <v>5555</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="8">
         <v>7.1999999999999995E-2</v>
@@ -4258,24 +4666,24 @@
         <v>5555</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8">
         <v>6.9000000000000006E-2</v>
@@ -4290,24 +4698,24 @@
         <v>5555</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8">
         <v>8.3000000000000004E-2</v>
@@ -4322,24 +4730,24 @@
         <v>5555</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8">
         <v>8.3000000000000004E-2</v>
@@ -4354,24 +4762,24 @@
         <v>5555</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="8">
         <v>8.3000000000000004E-2</v>
@@ -4386,24 +4794,24 @@
         <v>5555</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="8">
         <v>0.10199999999999999</v>
@@ -4418,24 +4826,24 @@
         <v>7374</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8">
         <v>0.14299999999999999</v>
@@ -4450,24 +4858,24 @@
         <v>7374</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="8">
         <v>7.5999999999999998E-2</v>
@@ -4482,24 +4890,24 @@
         <v>7374</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="8">
         <v>0.11799999999999999</v>
@@ -4514,24 +4922,24 @@
         <v>7374</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8">
         <v>-2.5000000000000001E-2</v>
@@ -4546,24 +4954,24 @@
         <v>31294</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="8">
         <v>-2.5000000000000001E-2</v>
@@ -4578,24 +4986,24 @@
         <v>31294</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="8">
         <v>-2.3E-2</v>
@@ -4610,24 +5018,24 @@
         <v>31294</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8">
         <v>0.10199999999999999</v>
@@ -4642,24 +5050,24 @@
         <v>7374</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8">
         <v>0.14299999999999999</v>
@@ -4674,24 +5082,24 @@
         <v>7374</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="8">
         <v>7.5999999999999998E-2</v>
@@ -4706,24 +5114,24 @@
         <v>7374</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="8">
         <v>0.11799999999999999</v>
@@ -4738,24 +5146,24 @@
         <v>7374</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="10">
         <v>-3.79E-3</v>
@@ -4764,30 +5172,30 @@
         <v>-0.84</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
         <v>3802</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="10">
         <v>-1.7899999999999999E-3</v>
@@ -4796,30 +5204,30 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="7">
         <v>2007</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="10">
         <v>-1.3600000000000001E-3</v>
@@ -4828,13 +5236,13 @@
         <v>-0.17</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="7">
         <v>1147</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
